--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>3012.746194569829</v>
+        <v>10.62858848795689</v>
       </c>
       <c r="R2">
-        <v>27114.71575112846</v>
+        <v>95.65729639161201</v>
       </c>
       <c r="S2">
-        <v>0.03187654770395885</v>
+        <v>0.0002599418929028915</v>
       </c>
       <c r="T2">
-        <v>0.03187654770395885</v>
+        <v>0.0002599418929028914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>43100.87901089319</v>
+        <v>927.4704222412959</v>
       </c>
       <c r="R3">
-        <v>387907.9110980387</v>
+        <v>8347.233800171662</v>
       </c>
       <c r="S3">
-        <v>0.456031519797328</v>
+        <v>0.02268301359508089</v>
       </c>
       <c r="T3">
-        <v>0.4560315197973281</v>
+        <v>0.02268301359508089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>6593.066425235883</v>
+        <v>141.8735357980281</v>
       </c>
       <c r="R4">
-        <v>59337.59782712295</v>
+        <v>1276.861822182253</v>
       </c>
       <c r="S4">
-        <v>0.06975834764913183</v>
+        <v>0.003469781099339063</v>
       </c>
       <c r="T4">
-        <v>0.06975834764913184</v>
+        <v>0.003469781099339062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>1348.557430002923</v>
+        <v>221.089720695988</v>
       </c>
       <c r="R5">
-        <v>12137.01687002631</v>
+        <v>1989.807486263892</v>
       </c>
       <c r="S5">
-        <v>0.01426849541010016</v>
+        <v>0.005407160185400509</v>
       </c>
       <c r="T5">
-        <v>0.01426849541010016</v>
+        <v>0.005407160185400509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>19292.70070428093</v>
@@ -818,10 +818,10 @@
         <v>173634.3063385284</v>
       </c>
       <c r="S6">
-        <v>0.2041276146814689</v>
+        <v>0.4718388660885818</v>
       </c>
       <c r="T6">
-        <v>0.2041276146814689</v>
+        <v>0.4718388660885818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>2951.170838844647</v>
@@ -880,10 +880,10 @@
         <v>26560.53754960182</v>
       </c>
       <c r="S7">
-        <v>0.0312250458390823</v>
+        <v>0.0721763698912908</v>
       </c>
       <c r="T7">
-        <v>0.0312250458390823</v>
+        <v>0.0721763698912908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>1041.112789112845</v>
+        <v>170.6856012483511</v>
       </c>
       <c r="R8">
-        <v>9370.01510201561</v>
+        <v>1536.17041123516</v>
       </c>
       <c r="S8">
-        <v>0.01101555834579549</v>
+        <v>0.004174433729374101</v>
       </c>
       <c r="T8">
-        <v>0.01101555834579549</v>
+        <v>0.0041744337293741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>14894.34338714796</v>
@@ -1004,10 +1004,10 @@
         <v>134049.0904843317</v>
       </c>
       <c r="S9">
-        <v>0.1575905226783821</v>
+        <v>0.3642688601584147</v>
       </c>
       <c r="T9">
-        <v>0.1575905226783821</v>
+        <v>0.3642688601584147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>2278.361777422699</v>
@@ -1066,10 +1066,10 @@
         <v>20505.25599680429</v>
       </c>
       <c r="S10">
-        <v>0.02410634789475222</v>
+        <v>0.05572157335961531</v>
       </c>
       <c r="T10">
-        <v>0.02410634789475222</v>
+        <v>0.05572157335961531</v>
       </c>
     </row>
   </sheetData>
